--- a/candump_08-03-22-18-12.xlsx
+++ b/candump_08-03-22-18-12.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25522"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\sources\GitHub\CANDisplay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6291FFB8-ADA6-42F3-9364-377B9E86A1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05D482-020D-400F-AA35-8BA6625DE7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candump_08-03-22-18-12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -118,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11088,8 +11101,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K703" totalsRowShown="0">
-  <autoFilter ref="A1:K703">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:K703" totalsRowShown="0">
+  <autoFilter ref="A1:K703" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="0x0618A001"/>
@@ -11100,17 +11113,17 @@
     <sortCondition ref="A1:A703"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="MsgID"/>
-    <tableColumn id="3" name="u0"/>
-    <tableColumn id="4" name="u1"/>
-    <tableColumn id="5" name="u2"/>
-    <tableColumn id="6" name="u3"/>
-    <tableColumn id="7" name="u4"/>
-    <tableColumn id="8" name="u5"/>
-    <tableColumn id="9" name="u6"/>
-    <tableColumn id="10" name="u7"/>
-    <tableColumn id="11" name="RPMa" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MsgID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="u0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="u1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="u2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="u3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="u4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="u5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="u6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="u7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="RPMa" dataDxfId="0">
       <calculatedColumnFormula>(256*Table3[[#This Row],[u6]]+Table3[[#This Row],[u7]])/8</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11414,14 +11427,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K703"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K372" sqref="K372"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="B477" sqref="B477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.07421875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
